--- a/data/pca/factorExposure/factorExposure_2016-03-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-03-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01194845104235286</v>
+        <v>0.01586426174104765</v>
       </c>
       <c r="C2">
-        <v>0.05922680096352895</v>
+        <v>0.04090526376734279</v>
       </c>
       <c r="D2">
-        <v>-0.0379859989425043</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.07267322067369224</v>
+      </c>
+      <c r="E2">
+        <v>-0.1095423933653062</v>
+      </c>
+      <c r="F2">
+        <v>-0.07211080192602917</v>
+      </c>
+      <c r="G2">
+        <v>-0.0275110928851088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04128499824601701</v>
+        <v>0.02559507689611433</v>
       </c>
       <c r="C3">
-        <v>0.1219827257403621</v>
+        <v>0.06748143595508795</v>
       </c>
       <c r="D3">
-        <v>-0.08195122142335041</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07994909271603642</v>
+      </c>
+      <c r="E3">
+        <v>-0.07229931549663883</v>
+      </c>
+      <c r="F3">
+        <v>0.03774297816971019</v>
+      </c>
+      <c r="G3">
+        <v>-0.0182011120636975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06266714024786034</v>
+        <v>0.06157738935624484</v>
       </c>
       <c r="C4">
-        <v>0.06626976289993597</v>
+        <v>0.06485552546134396</v>
       </c>
       <c r="D4">
-        <v>-0.03497350312184604</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06901623240140997</v>
+      </c>
+      <c r="E4">
+        <v>-0.1012360662622139</v>
+      </c>
+      <c r="F4">
+        <v>-0.02441127347409258</v>
+      </c>
+      <c r="G4">
+        <v>-0.07048443068223527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04140777035491994</v>
+        <v>0.03842112589601208</v>
       </c>
       <c r="C6">
-        <v>0.03601422345929432</v>
+        <v>0.02688593036278262</v>
       </c>
       <c r="D6">
-        <v>-0.03335115755867953</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.07237822446869356</v>
+      </c>
+      <c r="E6">
+        <v>-0.09091106016403425</v>
+      </c>
+      <c r="F6">
+        <v>-0.01642509011465534</v>
+      </c>
+      <c r="G6">
+        <v>-0.05364844577803305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02899323943974706</v>
+        <v>0.02274515637380124</v>
       </c>
       <c r="C7">
-        <v>0.03953829920863384</v>
+        <v>0.03637353803593859</v>
       </c>
       <c r="D7">
-        <v>0.00276652511758264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04873576042353148</v>
+      </c>
+      <c r="E7">
+        <v>-0.0770721647156105</v>
+      </c>
+      <c r="F7">
+        <v>-0.05231213099527907</v>
+      </c>
+      <c r="G7">
+        <v>-0.1000986911111661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.008404354550373938</v>
+        <v>0.007755982306121821</v>
       </c>
       <c r="C8">
-        <v>0.04197681477495853</v>
+        <v>0.03507306063817874</v>
       </c>
       <c r="D8">
-        <v>-0.02596509062173239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.04357981480951672</v>
+      </c>
+      <c r="E8">
+        <v>-0.06159388462386022</v>
+      </c>
+      <c r="F8">
+        <v>-0.01199334810020009</v>
+      </c>
+      <c r="G8">
+        <v>-0.03346651912368043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03894772115205182</v>
+        <v>0.04209116939772185</v>
       </c>
       <c r="C9">
-        <v>0.04764786085325842</v>
+        <v>0.0507697264746932</v>
       </c>
       <c r="D9">
-        <v>-0.01834859715017438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04978881673065516</v>
+      </c>
+      <c r="E9">
+        <v>-0.0790494918074907</v>
+      </c>
+      <c r="F9">
+        <v>-0.04186364328648973</v>
+      </c>
+      <c r="G9">
+        <v>-0.07514983422764136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.0709880024445341</v>
+        <v>0.09844553889776594</v>
       </c>
       <c r="C10">
-        <v>-0.1892401248449577</v>
+        <v>-0.2022803417018892</v>
       </c>
       <c r="D10">
-        <v>-0.0004345373860005936</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.008360119587514779</v>
+      </c>
+      <c r="E10">
+        <v>-0.03745364278438689</v>
+      </c>
+      <c r="F10">
+        <v>-0.01553808675496969</v>
+      </c>
+      <c r="G10">
+        <v>-0.03876215956830806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04410211583315572</v>
+        <v>0.03856063495130721</v>
       </c>
       <c r="C11">
-        <v>0.05055087178882475</v>
+        <v>0.0471836587505496</v>
       </c>
       <c r="D11">
-        <v>-0.01483089830005779</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.034969471145438</v>
+      </c>
+      <c r="E11">
+        <v>-0.0324125439851149</v>
+      </c>
+      <c r="F11">
+        <v>-0.02845774756429695</v>
+      </c>
+      <c r="G11">
+        <v>-0.07025090834191879</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.0459036080085143</v>
+        <v>0.04005434755264622</v>
       </c>
       <c r="C12">
-        <v>0.04643802665949087</v>
+        <v>0.04583567528704074</v>
       </c>
       <c r="D12">
-        <v>-0.0007295299383210679</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02966573413617669</v>
+      </c>
+      <c r="E12">
+        <v>-0.04248900498258544</v>
+      </c>
+      <c r="F12">
+        <v>-0.03014219832278804</v>
+      </c>
+      <c r="G12">
+        <v>-0.06539981942164108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01691296141250283</v>
+        <v>0.01573871805384404</v>
       </c>
       <c r="C13">
-        <v>0.05301034408726078</v>
+        <v>0.04215728035500906</v>
       </c>
       <c r="D13">
-        <v>-0.008386771885821461</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05851924076240897</v>
+      </c>
+      <c r="E13">
+        <v>-0.1126313116961206</v>
+      </c>
+      <c r="F13">
+        <v>-0.04167822534359691</v>
+      </c>
+      <c r="G13">
+        <v>-0.09322181954314289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01152950000097266</v>
+        <v>0.007867706221198039</v>
       </c>
       <c r="C14">
-        <v>0.03489150246215016</v>
+        <v>0.03014141922939363</v>
       </c>
       <c r="D14">
-        <v>0.001292481683991161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03311870884318106</v>
+      </c>
+      <c r="E14">
+        <v>-0.06671856236351742</v>
+      </c>
+      <c r="F14">
+        <v>-0.06141245588007094</v>
+      </c>
+      <c r="G14">
+        <v>-0.0804962235614943</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0002064569073549442</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006332580113153729</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01027926110790037</v>
+      </c>
+      <c r="E15">
+        <v>-0.008178045044224758</v>
+      </c>
+      <c r="F15">
+        <v>-0.005595114189595253</v>
+      </c>
+      <c r="G15">
+        <v>-0.006882391253454985</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04166797654706614</v>
+        <v>0.0366933327489489</v>
       </c>
       <c r="C16">
-        <v>0.04729131027693361</v>
+        <v>0.04407198133887782</v>
       </c>
       <c r="D16">
-        <v>-0.003208201368317767</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02982155634951141</v>
+      </c>
+      <c r="E16">
+        <v>-0.04714019406363262</v>
+      </c>
+      <c r="F16">
+        <v>-0.04072564179306547</v>
+      </c>
+      <c r="G16">
+        <v>-0.05738093576960463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02760333547539637</v>
+        <v>0.0194808352570418</v>
       </c>
       <c r="C19">
-        <v>0.06093392685158025</v>
+        <v>0.04491964007792867</v>
       </c>
       <c r="D19">
-        <v>-0.08920953919303667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09994482747141753</v>
+      </c>
+      <c r="E19">
+        <v>-0.112148401359885</v>
+      </c>
+      <c r="F19">
+        <v>-0.04839151671586615</v>
+      </c>
+      <c r="G19">
+        <v>-0.02779753588240493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.02107547372660822</v>
+        <v>0.01706798674128283</v>
       </c>
       <c r="C20">
-        <v>0.04898287057608314</v>
+        <v>0.04005060363254187</v>
       </c>
       <c r="D20">
-        <v>-0.009110026414828274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04339744202675898</v>
+      </c>
+      <c r="E20">
+        <v>-0.08666755455715251</v>
+      </c>
+      <c r="F20">
+        <v>-0.04268524901017876</v>
+      </c>
+      <c r="G20">
+        <v>-0.06274802022303277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01546104822977385</v>
+        <v>0.01471580206696687</v>
       </c>
       <c r="C21">
-        <v>0.05374050823015146</v>
+        <v>0.04353960391345487</v>
       </c>
       <c r="D21">
-        <v>-0.03587484581162567</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07173351810179275</v>
+      </c>
+      <c r="E21">
+        <v>-0.1358966341896558</v>
+      </c>
+      <c r="F21">
+        <v>-0.06819424530424974</v>
+      </c>
+      <c r="G21">
+        <v>-0.08904992625129364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.000551758912880316</v>
+        <v>0.004713335056855246</v>
       </c>
       <c r="C22">
-        <v>0.01342528101300733</v>
+        <v>0.02968624827116178</v>
       </c>
       <c r="D22">
-        <v>-0.02572853089029457</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.06205928657538907</v>
+      </c>
+      <c r="E22">
+        <v>-0.06713526543246232</v>
+      </c>
+      <c r="F22">
+        <v>0.02933799857438521</v>
+      </c>
+      <c r="G22">
+        <v>-0.04776858918348365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0005457542350063342</v>
+        <v>0.004810040306529423</v>
       </c>
       <c r="C23">
-        <v>0.01342238745163926</v>
+        <v>0.02969548153940894</v>
       </c>
       <c r="D23">
-        <v>-0.02565394102038066</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.06130383564580608</v>
+      </c>
+      <c r="E23">
+        <v>-0.06731289074723515</v>
+      </c>
+      <c r="F23">
+        <v>0.02942184500908901</v>
+      </c>
+      <c r="G23">
+        <v>-0.04786826576380875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03894691577602959</v>
+        <v>0.03786991145937716</v>
       </c>
       <c r="C24">
-        <v>0.04816395021513314</v>
+        <v>0.05208804509428348</v>
       </c>
       <c r="D24">
-        <v>-0.008729002105422445</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.03119005426231372</v>
+      </c>
+      <c r="E24">
+        <v>-0.05106798418712423</v>
+      </c>
+      <c r="F24">
+        <v>-0.04083844752973665</v>
+      </c>
+      <c r="G24">
+        <v>-0.068021295960145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04997379679541487</v>
+        <v>0.04520280988355121</v>
       </c>
       <c r="C25">
-        <v>0.05827629627154004</v>
+        <v>0.05512938156315393</v>
       </c>
       <c r="D25">
-        <v>0.001901041794952135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02764909622817845</v>
+      </c>
+      <c r="E25">
+        <v>-0.04219103836662309</v>
+      </c>
+      <c r="F25">
+        <v>-0.0320619274547822</v>
+      </c>
+      <c r="G25">
+        <v>-0.08110572639911263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01954659306107207</v>
+        <v>0.01779380850969791</v>
       </c>
       <c r="C26">
-        <v>0.01595606750258034</v>
+        <v>0.01674058555430781</v>
       </c>
       <c r="D26">
-        <v>-0.00891900577082907</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03258454812040845</v>
+      </c>
+      <c r="E26">
+        <v>-0.05790480746077268</v>
+      </c>
+      <c r="F26">
+        <v>-0.04531937476094943</v>
+      </c>
+      <c r="G26">
+        <v>-0.04632362556829202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08874176806930627</v>
+        <v>0.1350568873705478</v>
       </c>
       <c r="C28">
-        <v>-0.2584589189839736</v>
+        <v>-0.2607246052703757</v>
       </c>
       <c r="D28">
-        <v>0.003178029227739564</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02388484137376468</v>
+      </c>
+      <c r="E28">
+        <v>-0.05667538163325016</v>
+      </c>
+      <c r="F28">
+        <v>-0.02450775125054363</v>
+      </c>
+      <c r="G28">
+        <v>-0.05527221114180731</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009844972311438951</v>
+        <v>0.008425643871825898</v>
       </c>
       <c r="C29">
-        <v>0.03121176492919235</v>
+        <v>0.02844620366792935</v>
       </c>
       <c r="D29">
-        <v>0.008317524148398477</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02544293079004772</v>
+      </c>
+      <c r="E29">
+        <v>-0.06525902079204041</v>
+      </c>
+      <c r="F29">
+        <v>-0.05255751852050249</v>
+      </c>
+      <c r="G29">
+        <v>-0.08561107739911483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04706552003442101</v>
+        <v>0.04609650120263956</v>
       </c>
       <c r="C30">
-        <v>0.05035128226799485</v>
+        <v>0.05629378010498651</v>
       </c>
       <c r="D30">
-        <v>-0.08293379258638256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1132830903183147</v>
+      </c>
+      <c r="E30">
+        <v>-0.0865946307493705</v>
+      </c>
+      <c r="F30">
+        <v>-0.04923669543057206</v>
+      </c>
+      <c r="G30">
+        <v>-0.05407738717141398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.0640338773287189</v>
+        <v>0.06157327979037473</v>
       </c>
       <c r="C31">
-        <v>0.04477691848341269</v>
+        <v>0.06013565912213815</v>
       </c>
       <c r="D31">
-        <v>0.03954922947598053</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.008465589006539117</v>
+      </c>
+      <c r="E31">
+        <v>-0.0775900833301448</v>
+      </c>
+      <c r="F31">
+        <v>-0.01120452461027947</v>
+      </c>
+      <c r="G31">
+        <v>-0.07200530361824203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006548717178470959</v>
+        <v>0.01117599673755454</v>
       </c>
       <c r="C32">
-        <v>0.03789505054037931</v>
+        <v>0.03420811141217466</v>
       </c>
       <c r="D32">
-        <v>-0.06015207967772282</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0637520131748769</v>
+      </c>
+      <c r="E32">
+        <v>-0.06093650849068469</v>
+      </c>
+      <c r="F32">
+        <v>-0.05490910557429336</v>
+      </c>
+      <c r="G32">
+        <v>-0.06378024128103278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03573126374063004</v>
+        <v>0.02944249632929799</v>
       </c>
       <c r="C33">
-        <v>0.05882127472317648</v>
+        <v>0.05237405486338236</v>
       </c>
       <c r="D33">
-        <v>-0.04113397405217029</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07852924634394966</v>
+      </c>
+      <c r="E33">
+        <v>-0.09339595187461057</v>
+      </c>
+      <c r="F33">
+        <v>-0.04854629910536198</v>
+      </c>
+      <c r="G33">
+        <v>-0.09961173250365517</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04505414817852829</v>
+        <v>0.04127343454757211</v>
       </c>
       <c r="C34">
-        <v>0.06433333860065873</v>
+        <v>0.06279172734191865</v>
       </c>
       <c r="D34">
-        <v>-0.02043377093449191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03841037011379227</v>
+      </c>
+      <c r="E34">
+        <v>-0.02585538580457391</v>
+      </c>
+      <c r="F34">
+        <v>-0.04360412405643092</v>
+      </c>
+      <c r="G34">
+        <v>-0.07647216308985948</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01913747003809953</v>
+        <v>0.01660616262727081</v>
       </c>
       <c r="C36">
-        <v>0.01614619464087257</v>
+        <v>0.01320344083168049</v>
       </c>
       <c r="D36">
-        <v>-0.001651705516992016</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03150204046249303</v>
+      </c>
+      <c r="E36">
+        <v>-0.06595268295306941</v>
+      </c>
+      <c r="F36">
+        <v>-0.03777215851537122</v>
+      </c>
+      <c r="G36">
+        <v>-0.06499104947069861</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02963852864584036</v>
+        <v>0.02357688372225073</v>
       </c>
       <c r="C38">
-        <v>0.03140911514302827</v>
+        <v>0.0241080484904174</v>
       </c>
       <c r="D38">
-        <v>0.01456863404849596</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02489135434967596</v>
+      </c>
+      <c r="E38">
+        <v>-0.05967591574337816</v>
+      </c>
+      <c r="F38">
+        <v>-0.02839414743184582</v>
+      </c>
+      <c r="G38">
+        <v>-0.04145307614045124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04956878283840947</v>
+        <v>0.04360858273819368</v>
       </c>
       <c r="C39">
-        <v>0.05913826783423547</v>
+        <v>0.0614706000025237</v>
       </c>
       <c r="D39">
-        <v>-0.02202984669280125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05846512218516665</v>
+      </c>
+      <c r="E39">
+        <v>-0.05988669171238532</v>
+      </c>
+      <c r="F39">
+        <v>-0.06158438599568029</v>
+      </c>
+      <c r="G39">
+        <v>-0.06375033456473876</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01345501424592124</v>
+        <v>0.01595680266991772</v>
       </c>
       <c r="C40">
-        <v>0.05278037361102428</v>
+        <v>0.03848128580169314</v>
       </c>
       <c r="D40">
-        <v>-0.009270842464254594</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0394662171029302</v>
+      </c>
+      <c r="E40">
+        <v>-0.1008702173506832</v>
+      </c>
+      <c r="F40">
+        <v>-0.02240469990204199</v>
+      </c>
+      <c r="G40">
+        <v>-0.09387801498168906</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02448483326795544</v>
+        <v>0.02099728688341133</v>
       </c>
       <c r="C41">
-        <v>0.0136689885374505</v>
+        <v>0.009456257373192164</v>
       </c>
       <c r="D41">
-        <v>-0.0007294490953210903</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.02156744526854089</v>
+      </c>
+      <c r="E41">
+        <v>-0.06726342046278119</v>
+      </c>
+      <c r="F41">
+        <v>-0.03253078990054829</v>
+      </c>
+      <c r="G41">
+        <v>-0.05143153666901022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04681792972215783</v>
+        <v>0.03304020575224264</v>
       </c>
       <c r="C43">
-        <v>0.03314183886195057</v>
+        <v>0.02426883318595551</v>
       </c>
       <c r="D43">
-        <v>-0.022181728145903</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.05121713803738572</v>
+      </c>
+      <c r="E43">
+        <v>-0.08142515948485983</v>
+      </c>
+      <c r="F43">
+        <v>-0.02073016776462507</v>
+      </c>
+      <c r="G43">
+        <v>-0.07332037755420717</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01904330742758326</v>
+        <v>0.01968567263830176</v>
       </c>
       <c r="C44">
-        <v>0.06864554861501833</v>
+        <v>0.04800508840666874</v>
       </c>
       <c r="D44">
-        <v>-0.0003312600344431578</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04038473734936204</v>
+      </c>
+      <c r="E44">
+        <v>-0.09458813414241811</v>
+      </c>
+      <c r="F44">
+        <v>-0.05150493489670232</v>
+      </c>
+      <c r="G44">
+        <v>-0.05225390645300564</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01387469640732249</v>
+        <v>0.01330387580327586</v>
       </c>
       <c r="C46">
-        <v>0.02491912568323113</v>
+        <v>0.02845485989039813</v>
       </c>
       <c r="D46">
-        <v>0.01000822235459484</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.02372282219961215</v>
+      </c>
+      <c r="E46">
+        <v>-0.07826824244238109</v>
+      </c>
+      <c r="F46">
+        <v>-0.05899085363977744</v>
+      </c>
+      <c r="G46">
+        <v>-0.07714534273579354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09226134327384947</v>
+        <v>0.09440948199168739</v>
       </c>
       <c r="C47">
-        <v>0.06373359108618407</v>
+        <v>0.07721020041815529</v>
       </c>
       <c r="D47">
-        <v>0.04641446180091724</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01821626576013573</v>
+      </c>
+      <c r="E47">
+        <v>-0.07221682609730375</v>
+      </c>
+      <c r="F47">
+        <v>-0.01323890623176068</v>
+      </c>
+      <c r="G47">
+        <v>-0.07324071911321146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.0207983654232695</v>
+        <v>0.01921730494823853</v>
       </c>
       <c r="C48">
-        <v>0.0132929593008167</v>
+        <v>0.01563379715546698</v>
       </c>
       <c r="D48">
-        <v>0.01452600926318635</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01932905697740926</v>
+      </c>
+      <c r="E48">
+        <v>-0.08208582057677546</v>
+      </c>
+      <c r="F48">
+        <v>-0.05055862376173124</v>
+      </c>
+      <c r="G48">
+        <v>-0.06993385154998608</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.0865430795483738</v>
+        <v>0.07404082935743937</v>
       </c>
       <c r="C50">
-        <v>0.07935296403668347</v>
+        <v>0.07299381458003612</v>
       </c>
       <c r="D50">
-        <v>0.04205671625534774</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0006163346450156629</v>
+      </c>
+      <c r="E50">
+        <v>-0.08497208651543921</v>
+      </c>
+      <c r="F50">
+        <v>0.0182493503397605</v>
+      </c>
+      <c r="G50">
+        <v>-0.07783754358724695</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.0155316570901098</v>
+        <v>0.01174382880167617</v>
       </c>
       <c r="C51">
-        <v>0.04765437365733607</v>
+        <v>0.03074933868932642</v>
       </c>
       <c r="D51">
-        <v>-0.04735769173464519</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.06453462980066169</v>
+      </c>
+      <c r="E51">
+        <v>-0.06566334808384675</v>
+      </c>
+      <c r="F51">
+        <v>-0.04951010697240441</v>
+      </c>
+      <c r="G51">
+        <v>-0.0538200579084275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08501873155063365</v>
+        <v>0.09908042374602224</v>
       </c>
       <c r="C53">
-        <v>0.07625991199382633</v>
+        <v>0.08333452916464831</v>
       </c>
       <c r="D53">
-        <v>0.06836674360455972</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05818225241373111</v>
+      </c>
+      <c r="E53">
+        <v>-0.07690981136419514</v>
+      </c>
+      <c r="F53">
+        <v>-0.01938764165621333</v>
+      </c>
+      <c r="G53">
+        <v>-0.07433119282382861</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03842016374603444</v>
+        <v>0.03177161709442489</v>
       </c>
       <c r="C54">
-        <v>0.03217470592970944</v>
+        <v>0.03046932303919403</v>
       </c>
       <c r="D54">
-        <v>-0.00146500758696055</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03306507223469091</v>
+      </c>
+      <c r="E54">
+        <v>-0.06819166949136095</v>
+      </c>
+      <c r="F54">
+        <v>-0.05473224037113214</v>
+      </c>
+      <c r="G54">
+        <v>-0.08462763165545839</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08075850681387156</v>
+        <v>0.09118004808251429</v>
       </c>
       <c r="C55">
-        <v>0.05092201626861008</v>
+        <v>0.06523414468039773</v>
       </c>
       <c r="D55">
-        <v>0.07090217880936169</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05801039175560761</v>
+      </c>
+      <c r="E55">
+        <v>-0.05412376565960753</v>
+      </c>
+      <c r="F55">
+        <v>0.002099993992970072</v>
+      </c>
+      <c r="G55">
+        <v>-0.05165490696107002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.154389419690653</v>
+        <v>0.1567147653738966</v>
       </c>
       <c r="C56">
-        <v>0.07796704198180492</v>
+        <v>0.09765198365200436</v>
       </c>
       <c r="D56">
-        <v>0.06281680387541137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0517959898625486</v>
+      </c>
+      <c r="E56">
+        <v>-0.04113445343599842</v>
+      </c>
+      <c r="F56">
+        <v>0.009980809478480474</v>
+      </c>
+      <c r="G56">
+        <v>-0.02120248017461622</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05391626769246322</v>
+        <v>0.03640556716835614</v>
       </c>
       <c r="C58">
-        <v>0.01854995281677407</v>
+        <v>0.02170602166474193</v>
       </c>
       <c r="D58">
-        <v>-0.4487180463445735</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4003148575558708</v>
+      </c>
+      <c r="E58">
+        <v>-0.5035967775723487</v>
+      </c>
+      <c r="F58">
+        <v>0.3884307037824614</v>
+      </c>
+      <c r="G58">
+        <v>0.5598906347554747</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1224165851548205</v>
+        <v>0.1388830613210848</v>
       </c>
       <c r="C59">
-        <v>-0.2077463193763898</v>
+        <v>-0.1938666297669674</v>
       </c>
       <c r="D59">
-        <v>-0.03042118297102055</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03285576847947311</v>
+      </c>
+      <c r="E59">
+        <v>-0.02692893734890405</v>
+      </c>
+      <c r="F59">
+        <v>-0.03195188850444399</v>
+      </c>
+      <c r="G59">
+        <v>0.005915117096287403</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2968333707019307</v>
+        <v>0.2691887255612403</v>
       </c>
       <c r="C60">
-        <v>0.1177896206641541</v>
+        <v>0.1026516136423831</v>
       </c>
       <c r="D60">
-        <v>-0.2217564947959858</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.23096500337569</v>
+      </c>
+      <c r="E60">
+        <v>0.2576726239064704</v>
+      </c>
+      <c r="F60">
+        <v>0.08139212915645708</v>
+      </c>
+      <c r="G60">
+        <v>-0.05400415687514066</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04771991908436484</v>
+        <v>0.04501218174121192</v>
       </c>
       <c r="C61">
-        <v>0.05773944521978536</v>
+        <v>0.05668276240082814</v>
       </c>
       <c r="D61">
-        <v>-0.01790063466255271</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04757201853872952</v>
+      </c>
+      <c r="E61">
+        <v>-0.05637263713603186</v>
+      </c>
+      <c r="F61">
+        <v>-0.0442803501444357</v>
+      </c>
+      <c r="G61">
+        <v>-0.07821618483725676</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01849566456282586</v>
+        <v>0.01833884738535256</v>
       </c>
       <c r="C63">
-        <v>0.03373489301749819</v>
+        <v>0.03026615748431995</v>
       </c>
       <c r="D63">
-        <v>0.01648409373701084</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02250449013889515</v>
+      </c>
+      <c r="E63">
+        <v>-0.07219395464599125</v>
+      </c>
+      <c r="F63">
+        <v>-0.02692037037525547</v>
+      </c>
+      <c r="G63">
+        <v>-0.0720734200660724</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05440774880782082</v>
+        <v>0.0589538347052059</v>
       </c>
       <c r="C64">
-        <v>0.04771287777758404</v>
+        <v>0.057819538576398</v>
       </c>
       <c r="D64">
-        <v>-0.008053460067017584</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01485938871200251</v>
+      </c>
+      <c r="E64">
+        <v>-0.04810278364966751</v>
+      </c>
+      <c r="F64">
+        <v>-0.04474007093634046</v>
+      </c>
+      <c r="G64">
+        <v>-0.0569330901970346</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07874222052263656</v>
+        <v>0.06459885227150552</v>
       </c>
       <c r="C65">
-        <v>0.02687209206173383</v>
+        <v>0.02597489453268685</v>
       </c>
       <c r="D65">
-        <v>-0.06021586570967854</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0915620338299737</v>
+      </c>
+      <c r="E65">
+        <v>-0.05223358355261067</v>
+      </c>
+      <c r="F65">
+        <v>0.007247325933999702</v>
+      </c>
+      <c r="G65">
+        <v>-0.009194503908680016</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06267192934756896</v>
+        <v>0.05521028077927488</v>
       </c>
       <c r="C66">
-        <v>0.07856050064594444</v>
+        <v>0.07645736116294691</v>
       </c>
       <c r="D66">
-        <v>-0.04174135583194077</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08199412443849925</v>
+      </c>
+      <c r="E66">
+        <v>-0.07232197799537506</v>
+      </c>
+      <c r="F66">
+        <v>-0.04854200034092385</v>
+      </c>
+      <c r="G66">
+        <v>-0.0757114082749815</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.04998362842303609</v>
+        <v>0.04359248367327118</v>
       </c>
       <c r="C67">
-        <v>0.03176199218221364</v>
+        <v>0.0283298987428389</v>
       </c>
       <c r="D67">
-        <v>0.02389020424237032</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005579515855732317</v>
+      </c>
+      <c r="E67">
+        <v>-0.03656521195939425</v>
+      </c>
+      <c r="F67">
+        <v>-0.01781534380183408</v>
+      </c>
+      <c r="G67">
+        <v>-0.03394326835745579</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1226108090875645</v>
+        <v>0.1454801754501517</v>
       </c>
       <c r="C68">
-        <v>-0.2831642925812203</v>
+        <v>-0.24502967458212</v>
       </c>
       <c r="D68">
-        <v>0.004787607035339311</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01008617824660296</v>
+      </c>
+      <c r="E68">
+        <v>-0.04824761704258927</v>
+      </c>
+      <c r="F68">
+        <v>-0.003267814017963954</v>
+      </c>
+      <c r="G68">
+        <v>-0.02263085733657928</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09372812322681875</v>
+        <v>0.09042230580804138</v>
       </c>
       <c r="C69">
-        <v>0.07103054852232317</v>
+        <v>0.08869574699204412</v>
       </c>
       <c r="D69">
-        <v>0.04579073443722573</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007190750859599156</v>
+      </c>
+      <c r="E69">
+        <v>-0.06424795805694286</v>
+      </c>
+      <c r="F69">
+        <v>-0.0458320093261659</v>
+      </c>
+      <c r="G69">
+        <v>-0.07463691386939995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1129652866261554</v>
+        <v>0.1406619552394916</v>
       </c>
       <c r="C71">
-        <v>-0.2594934973479068</v>
+        <v>-0.2453355559956355</v>
       </c>
       <c r="D71">
-        <v>-0.01600082792179519</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.0112108326637058</v>
+      </c>
+      <c r="E71">
+        <v>-0.06710976695694185</v>
+      </c>
+      <c r="F71">
+        <v>0.001750309529573621</v>
+      </c>
+      <c r="G71">
+        <v>-0.05237748143996379</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1005848732944272</v>
+        <v>0.1062051102887028</v>
       </c>
       <c r="C72">
-        <v>0.0400658900422198</v>
+        <v>0.04655122394453864</v>
       </c>
       <c r="D72">
-        <v>-0.003283773482067156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.04014324563760775</v>
+      </c>
+      <c r="E72">
+        <v>-0.0244012016009275</v>
+      </c>
+      <c r="F72">
+        <v>-0.01982700780915909</v>
+      </c>
+      <c r="G72">
+        <v>-0.1006298820732661</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3779433860261167</v>
+        <v>0.3228205831188445</v>
       </c>
       <c r="C73">
-        <v>0.04986131381398858</v>
+        <v>0.06425953388725694</v>
       </c>
       <c r="D73">
-        <v>-0.5131760252664841</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4755441610826303</v>
+      </c>
+      <c r="E73">
+        <v>0.50739956916391</v>
+      </c>
+      <c r="F73">
+        <v>0.2299222696769154</v>
+      </c>
+      <c r="G73">
+        <v>-0.02597983193439969</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1061234864677721</v>
+        <v>0.1110319914346465</v>
       </c>
       <c r="C74">
-        <v>0.09224298796885108</v>
+        <v>0.09061755274249267</v>
       </c>
       <c r="D74">
-        <v>0.04912280025025254</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0446690882174863</v>
+      </c>
+      <c r="E74">
+        <v>-0.06556345089376733</v>
+      </c>
+      <c r="F74">
+        <v>0.01543780444647443</v>
+      </c>
+      <c r="G74">
+        <v>-0.04390073667744914</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.259172609815335</v>
+        <v>0.260953539801435</v>
       </c>
       <c r="C75">
-        <v>0.08294580742085216</v>
+        <v>0.1184830115724856</v>
       </c>
       <c r="D75">
-        <v>0.1497192368414486</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1515611794083426</v>
+      </c>
+      <c r="E75">
+        <v>-0.02114841496527968</v>
+      </c>
+      <c r="F75">
+        <v>0.04055227250169228</v>
+      </c>
+      <c r="G75">
+        <v>0.04993135386163667</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1174500776704047</v>
+        <v>0.1303187648798398</v>
       </c>
       <c r="C76">
-        <v>0.07688980645934466</v>
+        <v>0.08791825572383248</v>
       </c>
       <c r="D76">
-        <v>0.07717802606046152</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07379730984675889</v>
+      </c>
+      <c r="E76">
+        <v>-0.08600927089870777</v>
+      </c>
+      <c r="F76">
+        <v>-0.01044378524306998</v>
+      </c>
+      <c r="G76">
+        <v>-0.02872026488531089</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08446488886276873</v>
+        <v>0.06972301448863215</v>
       </c>
       <c r="C77">
-        <v>0.0376920689839608</v>
+        <v>0.0566275908345463</v>
       </c>
       <c r="D77">
-        <v>-0.05519105510188609</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.07458272025892485</v>
+      </c>
+      <c r="E77">
+        <v>-0.1030055399058113</v>
+      </c>
+      <c r="F77">
+        <v>-0.1821780424000342</v>
+      </c>
+      <c r="G77">
+        <v>0.1338496168358256</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04990975879273842</v>
+        <v>0.04937983926330508</v>
       </c>
       <c r="C78">
-        <v>0.03946958499589517</v>
+        <v>0.0512673920022659</v>
       </c>
       <c r="D78">
-        <v>-0.03993167805239643</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07387740971273601</v>
+      </c>
+      <c r="E78">
+        <v>-0.06696943513913488</v>
+      </c>
+      <c r="F78">
+        <v>-0.04762056652675156</v>
+      </c>
+      <c r="G78">
+        <v>-0.06450474502182925</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.0006128644148751335</v>
+        <v>0.03536511189273885</v>
       </c>
       <c r="C79">
-        <v>0.001263027751590432</v>
+        <v>0.04907193167185363</v>
       </c>
       <c r="D79">
-        <v>-0.005070050453664192</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.08189169216599185</v>
+      </c>
+      <c r="E79">
+        <v>-0.0765755729904751</v>
+      </c>
+      <c r="F79">
+        <v>0.02741661326599511</v>
+      </c>
+      <c r="G79">
+        <v>-0.0314986173493115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03992052577963537</v>
+        <v>0.03084015877397598</v>
       </c>
       <c r="C80">
-        <v>0.05210619462625471</v>
+        <v>0.05132281386362466</v>
       </c>
       <c r="D80">
-        <v>-0.03442660004762172</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04571445734641736</v>
+      </c>
+      <c r="E80">
+        <v>-0.01423938762838276</v>
+      </c>
+      <c r="F80">
+        <v>-0.05152550769194078</v>
+      </c>
+      <c r="G80">
+        <v>0.0003794396774259039</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1464375160686481</v>
+        <v>0.1440051732140154</v>
       </c>
       <c r="C81">
-        <v>0.06836234920004078</v>
+        <v>0.08921454870302012</v>
       </c>
       <c r="D81">
-        <v>0.1178973257297973</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1184190782958326</v>
+      </c>
+      <c r="E81">
+        <v>-0.06864959527720078</v>
+      </c>
+      <c r="F81">
+        <v>0.01995918759449808</v>
+      </c>
+      <c r="G81">
+        <v>0.02009746836703742</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.2067379435721897</v>
+        <v>0.2350581283222495</v>
       </c>
       <c r="C82">
-        <v>0.0865572220483017</v>
+        <v>0.1524339544658334</v>
       </c>
       <c r="D82">
-        <v>0.2070628151776183</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2493055701279226</v>
+      </c>
+      <c r="E82">
+        <v>0.03654155492156567</v>
+      </c>
+      <c r="F82">
+        <v>-0.04605326167006439</v>
+      </c>
+      <c r="G82">
+        <v>-0.1039234343413394</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04579210005886222</v>
+        <v>0.03128001593189195</v>
       </c>
       <c r="C83">
-        <v>0.03218428307057975</v>
+        <v>0.04515471545353995</v>
       </c>
       <c r="D83">
-        <v>-0.04438451555492869</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03650040093139319</v>
+      </c>
+      <c r="E83">
+        <v>-0.02204712083990866</v>
+      </c>
+      <c r="F83">
+        <v>-0.02440619299457218</v>
+      </c>
+      <c r="G83">
+        <v>0.004217374981324891</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0002391263208320006</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0005477630585058443</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0002028841546165511</v>
+      </c>
+      <c r="E84">
+        <v>-0.003622289373624935</v>
+      </c>
+      <c r="F84">
+        <v>0.001584151112458221</v>
+      </c>
+      <c r="G84">
+        <v>0.0005393520237119601</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2209133092724802</v>
+        <v>0.2046259388152742</v>
       </c>
       <c r="C85">
-        <v>0.09105051685318792</v>
+        <v>0.1087058577788077</v>
       </c>
       <c r="D85">
-        <v>0.1642462052347938</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1316040637479489</v>
+      </c>
+      <c r="E85">
+        <v>0.00758074212453977</v>
+      </c>
+      <c r="F85">
+        <v>0.09776282377395626</v>
+      </c>
+      <c r="G85">
+        <v>-0.004681528281687664</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01077690997097706</v>
+        <v>0.01415182649281146</v>
       </c>
       <c r="C86">
-        <v>0.02911915001711394</v>
+        <v>0.01734316080140882</v>
       </c>
       <c r="D86">
-        <v>-0.04451461925273168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07118074136499429</v>
+      </c>
+      <c r="E86">
+        <v>-0.08191513440622142</v>
+      </c>
+      <c r="F86">
+        <v>-0.06444379886078989</v>
+      </c>
+      <c r="G86">
+        <v>-0.06991313064770434</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.03194777228221114</v>
+        <v>0.03157461535196469</v>
       </c>
       <c r="C87">
-        <v>0.004223917639054713</v>
+        <v>0.01351106489367183</v>
       </c>
       <c r="D87">
-        <v>-0.07528693464308189</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09749170510567022</v>
+      </c>
+      <c r="E87">
+        <v>-0.1286495586190296</v>
+      </c>
+      <c r="F87">
+        <v>-0.0741054508054801</v>
+      </c>
+      <c r="G87">
+        <v>0.01045788218825866</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1091263629498107</v>
+        <v>0.09344376273096111</v>
       </c>
       <c r="C88">
-        <v>0.08244559335695745</v>
+        <v>0.06684921242716961</v>
       </c>
       <c r="D88">
-        <v>0.019425095300486</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01525280168696573</v>
+      </c>
+      <c r="E88">
+        <v>-0.05137990055303305</v>
+      </c>
+      <c r="F88">
+        <v>-0.03517370085441263</v>
+      </c>
+      <c r="G88">
+        <v>-0.03734893122579552</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1735798020510055</v>
+        <v>0.2103110068616967</v>
       </c>
       <c r="C89">
-        <v>-0.3837997378651739</v>
+        <v>-0.3861175902669189</v>
       </c>
       <c r="D89">
-        <v>0.02702896940892609</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.00871691452620438</v>
+      </c>
+      <c r="E89">
+        <v>-0.07760992774500151</v>
+      </c>
+      <c r="F89">
+        <v>-0.0827398031500315</v>
+      </c>
+      <c r="G89">
+        <v>0.001760575936439486</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1668488250313348</v>
+        <v>0.1910831152757951</v>
       </c>
       <c r="C90">
-        <v>-0.3337143587710569</v>
+        <v>-0.3115596398494205</v>
       </c>
       <c r="D90">
-        <v>0.03165697476665435</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01199390600461083</v>
+      </c>
+      <c r="E90">
+        <v>-0.05753359484164634</v>
+      </c>
+      <c r="F90">
+        <v>-0.02212256078070085</v>
+      </c>
+      <c r="G90">
+        <v>-0.01322067597569792</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1923298722097297</v>
+        <v>0.1887101352280425</v>
       </c>
       <c r="C91">
-        <v>0.118696211988925</v>
+        <v>0.1386030515918784</v>
       </c>
       <c r="D91">
-        <v>0.1392323887532221</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1259238560653756</v>
+      </c>
+      <c r="E91">
+        <v>-0.05563123441441272</v>
+      </c>
+      <c r="F91">
+        <v>0.008042989384309722</v>
+      </c>
+      <c r="G91">
+        <v>0.01151316346090561</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1599353785926733</v>
+        <v>0.1781288433411856</v>
       </c>
       <c r="C92">
-        <v>-0.3014826804198147</v>
+        <v>-0.3019975782631403</v>
       </c>
       <c r="D92">
-        <v>0.01767261821336622</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.009354524231298109</v>
+      </c>
+      <c r="E92">
+        <v>-0.06364162505172223</v>
+      </c>
+      <c r="F92">
+        <v>-0.05032290174984027</v>
+      </c>
+      <c r="G92">
+        <v>-0.02815351554121999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1858501644081216</v>
+        <v>0.2103189626415414</v>
       </c>
       <c r="C93">
-        <v>-0.3373485122005813</v>
+        <v>-0.3220156482919538</v>
       </c>
       <c r="D93">
-        <v>0.03982672612954272</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01682218782634198</v>
+      </c>
+      <c r="E93">
+        <v>-0.0432446614280076</v>
+      </c>
+      <c r="F93">
+        <v>0.006030696685214015</v>
+      </c>
+      <c r="G93">
+        <v>-0.0381698367119892</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3564005316757645</v>
+        <v>0.3504955627665337</v>
       </c>
       <c r="C94">
-        <v>0.1208458502074861</v>
+        <v>0.1709546274962385</v>
       </c>
       <c r="D94">
-        <v>0.4247005178693469</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4083451259720747</v>
+      </c>
+      <c r="E94">
+        <v>0.01234596131088742</v>
+      </c>
+      <c r="F94">
+        <v>0.09241673483710122</v>
+      </c>
+      <c r="G94">
+        <v>0.4334243380396335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1213213970908588</v>
+        <v>0.08925600193426328</v>
       </c>
       <c r="C95">
-        <v>0.04326623491440246</v>
+        <v>0.05281791644027321</v>
       </c>
       <c r="D95">
-        <v>-0.2104028141898222</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.192066884967021</v>
+      </c>
+      <c r="E95">
+        <v>0.1604481342403885</v>
+      </c>
+      <c r="F95">
+        <v>-0.7815333928014184</v>
+      </c>
+      <c r="G95">
+        <v>0.4462896112904428</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1878086266832281</v>
+        <v>0.1853545619925513</v>
       </c>
       <c r="C98">
-        <v>0.03049228012843567</v>
+        <v>0.04743492325023411</v>
       </c>
       <c r="D98">
-        <v>-0.1924622223773607</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1955577811216538</v>
+      </c>
+      <c r="E98">
+        <v>0.1559895366526386</v>
+      </c>
+      <c r="F98">
+        <v>0.09240079963889315</v>
+      </c>
+      <c r="G98">
+        <v>-0.07211160973775076</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009616663927826641</v>
+        <v>0.008423826603247215</v>
       </c>
       <c r="C101">
-        <v>0.03122915000052419</v>
+        <v>0.02797620028792525</v>
       </c>
       <c r="D101">
-        <v>0.008138508739328778</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02538652899704558</v>
+      </c>
+      <c r="E101">
+        <v>-0.06599394890913532</v>
+      </c>
+      <c r="F101">
+        <v>-0.05330112244364919</v>
+      </c>
+      <c r="G101">
+        <v>-0.08543936969812148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1219971592483881</v>
+        <v>0.1257267732670581</v>
       </c>
       <c r="C102">
-        <v>0.06094089904237725</v>
+        <v>0.09568695501506924</v>
       </c>
       <c r="D102">
-        <v>0.05282389920088824</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06076067907918697</v>
+      </c>
+      <c r="E102">
+        <v>0.01044525783687655</v>
+      </c>
+      <c r="F102">
+        <v>-0.02644386954365096</v>
+      </c>
+      <c r="G102">
+        <v>0.0002468819669062782</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
